--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -46,12 +46,34 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>PT28H23M42.5616885S</t>
+  </si>
+  <si>
+    <t>PT28H23M30.0066106S</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>PT0S</t>
+  </si>
+  <si>
+    <t>PT28H22M22.851S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -378,11 +400,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" customWidth="true" width="20.0"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875"/>
+    <col min="5" max="6" customWidth="true" width="20.7109375"/>
+    <col min="7" max="7" customWidth="true" width="21.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -408,6 +430,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>45452.53214627315</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>45452.532291585645</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>45452.533068854165</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file.xlsx
+++ b/file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>PT28H22M22.851S</t>
+  </si>
+  <si>
+    <t>PT28H15M43.9112167S</t>
+  </si>
+  <si>
+    <t>PT28H15M43.912S</t>
+  </si>
+  <si>
+    <t>PT28H6M59.7227986S</t>
+  </si>
+  <si>
+    <t>PT28H6M59.723S</t>
+  </si>
+  <si>
+    <t>PT28H3M45.3248855S</t>
+  </si>
+  <si>
+    <t>PT28H3M45.325S</t>
+  </si>
+  <si>
+    <t>PT28H1M38.8632282S</t>
+  </si>
+  <si>
+    <t>PT28H1M38.864S</t>
+  </si>
+  <si>
+    <t>PT28H29.855563S</t>
+  </si>
+  <si>
+    <t>PT28H29.856S</t>
   </si>
 </sst>
 </file>
@@ -392,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -499,6 +529,226 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>45452.53768508102</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>45452.5376862037</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>45452.54375211806</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>45452.54375320602</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>45452.546002083334</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>45452.54600318287</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D11" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>45452.547465868054</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>45452.54746685185</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>45452.548264537036</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D14" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>45452.54826555555</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>45453.71527777778</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
